--- a/notebooks/Validação estrutura/a.xlsx
+++ b/notebooks/Validação estrutura/a.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\teste_git\prova-analista-big-data-pleno-00006-2024-061.785.871-39\entregaveis\notebooks\Validação estrutura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\teste_git\validador\notebooks\Validação estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E93EB89-4530-4148-8D19-D85A901567EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2AF1BD-D561-4CDC-A9D4-5911AF2A2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{DE3CBBD9-A5AB-4E5E-9972-D92F80ED02C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>id_disciplina</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B658D-3C5D-487E-8FBE-9B176C9220A0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -562,6 +568,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/notebooks/Validação estrutura/a.xlsx
+++ b/notebooks/Validação estrutura/a.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\teste_git\validador\notebooks\Validação estrutura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\clone_git\validador\notebooks\Validação estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2AF1BD-D561-4CDC-A9D4-5911AF2A2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D26966-DA06-4136-8135-8842FAB3F987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{DE3CBBD9-A5AB-4E5E-9972-D92F80ED02C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DE3CBBD9-A5AB-4E5E-9972-D92F80ED02C4}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
+    <sheet name="b" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>id_disciplina</t>
   </si>
@@ -457,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80B658D-3C5D-487E-8FBE-9B176C9220A0}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -583,4 +584,78 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E989F3-D8F1-4C2A-BBC8-13E93A3A131C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>